--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
@@ -432,47 +432,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Value 1</t>
+          <t>analysis_B4_BT02_09.56_10.40.xlsx</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Value 2</t>
+          <t>analysis_B4_BT02_13.59_14.50.xlsx</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Value 3</t>
+          <t>analysis_B4_BT03_14.54_15.49.xlsx</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Value 4</t>
+          <t>analysis_B4_BT04_10.45_11.45.xlsx</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Value 5</t>
+          <t>analysis_B4_BT04_15.52_16.57.xlsx</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Value 6</t>
+          <t>analysis_B4_BT05_11.47_12.42.xlsx</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Value 7</t>
+          <t>analysis_B4_BT06_09.00_09.55.xlsx</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Value 8</t>
+          <t>analysis_B4_BT06_13.03_13.56.xlsx</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Value 9</t>
+          <t>analysis_B4_BT06_17.05_17.45.xlsx</t>
         </is>
       </c>
     </row>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,47 +432,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>analysis_B4_BT02_09.56_10.40.xlsx</t>
+          <t>analysis_B3_B03_13.15_15.30.xlsx</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>analysis_B4_BT02_13.59_14.50.xlsx</t>
+          <t>analysis_B3_B05_17.46_20.05.xlsx</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>analysis_B4_BT03_14.54_15.49.xlsx</t>
+          <t>analysis_B3_B07_16.40_17.38.xlsx</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>analysis_B4_BT04_10.45_11.45.xlsx</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>analysis_B4_BT04_15.52_16.57.xlsx</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>analysis_B4_BT05_11.47_12.42.xlsx</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>analysis_B4_BT06_09.00_09.55.xlsx</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>analysis_B4_BT06_13.03_13.56.xlsx</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>analysis_B4_BT06_17.05_17.45.xlsx</t>
+          <t>analysis_B3_B15_15.33_16.39.xlsx</t>
         </is>
       </c>
     </row>
@@ -483,31 +458,16 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.0308222337962963</v>
+        <v>0.09476607638888888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.03662605324074074</v>
+        <v>0.09629348379629629</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.03762708333333333</v>
+        <v>0.04116934027777778</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.03393528935185185</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.03623425925925926</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.03086597222222223</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0.03483537037037037</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.03488097222222222</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0.0277346412037037</v>
+        <v>0.04503153935185185</v>
       </c>
     </row>
     <row r="3">
@@ -517,31 +477,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.75020694444444</v>
+        <v>35.83509361111111</v>
       </c>
       <c r="C3" t="n">
-        <v>33.51083972222222</v>
+        <v>33.66541638888889</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50618638888889</v>
+        <v>25.20002277777778</v>
       </c>
       <c r="E3" t="n">
-        <v>28.38003055555555</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32.97601722222222</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27.4824425</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.75552166666667</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27.04170027777778</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.89713222222223</v>
+        <v>23.29538888888889</v>
       </c>
     </row>
     <row r="4">
@@ -551,31 +496,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1500.779628262778</v>
+        <v>1842.9312340325</v>
       </c>
       <c r="C4" t="n">
-        <v>1708.295109924167</v>
+        <v>1739.502156834166</v>
       </c>
       <c r="D4" t="n">
-        <v>1709.0979718525</v>
+        <v>1288.723236378611</v>
       </c>
       <c r="E4" t="n">
-        <v>1430.000783129167</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1673.844472675</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1392.512839500555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1385.740676991389</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1368.217733879722</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1058.084981635556</v>
+        <v>1202.019643321667</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +515,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.875</v>
+        <v>38.646</v>
       </c>
       <c r="C5" t="n">
-        <v>39.374</v>
+        <v>39.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37.269</v>
+        <v>38.279</v>
       </c>
       <c r="E5" t="n">
-        <v>38.841</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39.268</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38.734</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38.746</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37.854</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25.2</v>
+        <v>38.411</v>
       </c>
     </row>
     <row r="6">
@@ -619,31 +534,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.035</v>
+        <v>3.126</v>
       </c>
       <c r="C6" t="n">
-        <v>6.547</v>
+        <v>5.579</v>
       </c>
       <c r="D6" t="n">
-        <v>3.638</v>
+        <v>12.818</v>
       </c>
       <c r="E6" t="n">
-        <v>10.178</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.259</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.427</v>
+        <v>14.015</v>
       </c>
     </row>
     <row r="7">
@@ -653,31 +553,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18</v>
-      </c>
-      <c r="G7" t="n">
-        <v>28</v>
-      </c>
-      <c r="H7" t="n">
-        <v>25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -687,31 +572,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>99</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>99</v>
-      </c>
-      <c r="G8" t="n">
-        <v>97</v>
-      </c>
-      <c r="H8" t="n">
-        <v>97</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -721,31 +591,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.62569010526831</v>
+        <v>69.78145244294669</v>
       </c>
       <c r="C9" t="n">
-        <v>32.76320401356542</v>
+        <v>60.66392335791602</v>
       </c>
       <c r="D9" t="n">
-        <v>37.58353708281574</v>
+        <v>31.11078368427709</v>
       </c>
       <c r="E9" t="n">
-        <v>31.96949405624171</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30.98661569075563</v>
-      </c>
-      <c r="G9" t="n">
-        <v>28.99043299372953</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27.14685761272991</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.02395091125489</v>
-      </c>
-      <c r="J9" t="n">
-        <v>24.58373603844754</v>
+        <v>36.62457311111898</v>
       </c>
     </row>
     <row r="10">
@@ -755,31 +610,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.00394482880926</v>
+        <v>26.41004406635532</v>
       </c>
       <c r="C10" t="n">
-        <v>52.14066088337565</v>
+        <v>28.6744091141474</v>
       </c>
       <c r="D10" t="n">
-        <v>45.47464407318778</v>
+        <v>41.4236828444123</v>
       </c>
       <c r="E10" t="n">
-        <v>44.73016622075612</v>
-      </c>
-      <c r="F10" t="n">
-        <v>54.01830549614895</v>
-      </c>
-      <c r="G10" t="n">
-        <v>48.03353022708382</v>
-      </c>
-      <c r="H10" t="n">
-        <v>51.04608042521935</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52.57532718784805</v>
-      </c>
-      <c r="J10" t="n">
-        <v>43.04003996710556</v>
+        <v>32.82003150384138</v>
       </c>
     </row>
     <row r="11">
@@ -789,31 +629,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>73</v>
-      </c>
-      <c r="F11" t="n">
-        <v>81</v>
-      </c>
-      <c r="G11" t="n">
-        <v>69</v>
-      </c>
-      <c r="H11" t="n">
-        <v>72</v>
-      </c>
-      <c r="I11" t="n">
-        <v>70</v>
-      </c>
-      <c r="J11" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -824,90 +649,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Eco mode
+98.43%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Eco mode
+50.43%
+Sports mode
+41.24%
+Custom mode
+3.00%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Custom mode
-85.04%
+59.03%
 Eco mode
-13.92%
+34.13%
 Sports mode
-0.04%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Custom mode
-77.01%
-Eco mode
-22.80%
-Sports mode
-0.06%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Custom mode
-67.79%
-Eco mode
-32.21%</t>
+0.03%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Custom mode
-97.11%
-Eco mode
-1.34%
+          <t>Eco mode
+64.47%
+Custom mode
+30.64%
 Sports mode
 0.08%</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Custom mode
-69.63%
-Eco mode
-18.00%
-Sports mode
-0.06%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Custom mode
-94.60%
-Eco mode
-3.25%
-Sports mode
-0.11%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Custom mode
-90.09%
-Eco mode
-8.86%
-Sports mode
-0.07%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Custom mode
-71.62%
-Eco mode
-8.79%
-Sports mode
-0.07%</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Custom mode
-56.98%
-Eco mode
-43.02%</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -916,31 +691,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5427.163392</v>
+        <v>2438.510646</v>
       </c>
       <c r="C13" t="n">
-        <v>5428.3737</v>
+        <v>6033.005824</v>
       </c>
       <c r="D13" t="n">
-        <v>4552.1056</v>
+        <v>6127.99704</v>
       </c>
       <c r="E13" t="n">
-        <v>5437.23852</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5421.410500000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5527.275720000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5724.067349</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5454.527923</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5176.618119</v>
+        <v>5854.507213</v>
       </c>
     </row>
     <row r="14">
@@ -950,31 +710,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2035.722178502638</v>
+        <v>-813.6561739657836</v>
       </c>
       <c r="C14" t="n">
-        <v>-1951.098475801713</v>
+        <v>-755.6664371428743</v>
       </c>
       <c r="D14" t="n">
-        <v>-1900.75770734291</v>
+        <v>-1311.306854427077</v>
       </c>
       <c r="E14" t="n">
-        <v>-1767.858111011332</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1935.080315231214</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1882.48074434923</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-1668.450313434448</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-1637.494628313497</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-1595.102987390285</v>
+        <v>-1118.735965862978</v>
       </c>
     </row>
     <row r="15">
@@ -984,31 +729,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01283144527777778</v>
+        <v>22.40473596861111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07929685166666668</v>
+        <v>95.97401529333334</v>
       </c>
       <c r="D15" t="n">
-        <v>2.388511011944444</v>
+        <v>55.21605070694445</v>
       </c>
       <c r="E15" t="n">
-        <v>0.045046905</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.447407298055555</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1260407530555556</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.02443286916666667</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6062592772222223</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.061052225</v>
+        <v>53.57201551583334</v>
       </c>
     </row>
     <row r="16">
@@ -1018,31 +748,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.000854977994777095</v>
+        <v>-1.201109951715442</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00464165532755325</v>
+        <v>-5.228834716066615</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1395576906892593</v>
+        <v>-4.108522701697714</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003150032261478203</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.08639732069129558</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.009050497931854558</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.001763132077205007</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.04429052093278955</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.005769735277205185</v>
+        <v>-4.266675008452464</v>
       </c>
     </row>
     <row r="17">
@@ -1052,31 +767,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.017</v>
+        <v>2.985</v>
       </c>
       <c r="C17" t="n">
-        <v>3.088</v>
+        <v>3.107</v>
       </c>
       <c r="D17" t="n">
-        <v>3.047</v>
+        <v>3.09</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.963</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.034</v>
+        <v>3.082</v>
       </c>
     </row>
     <row r="18">
@@ -1086,31 +786,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.329</v>
+        <v>3.339</v>
       </c>
       <c r="C18" t="n">
-        <v>3.435</v>
+        <v>3.34</v>
       </c>
       <c r="D18" t="n">
-        <v>3.349</v>
+        <v>3.334</v>
       </c>
       <c r="E18" t="n">
-        <v>3.326</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.332</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.328</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.326</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.345</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.338</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="19">
@@ -1120,31 +805,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3120000000000003</v>
+        <v>0.3540000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.347</v>
+        <v>0.2329999999999997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302</v>
+        <v>0.2440000000000002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3260000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2609999999999997</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2679999999999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3450000000000002</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.3040000000000003</v>
+        <v>0.2480000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -1154,31 +824,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
-      </c>
-      <c r="F20" t="n">
-        <v>38</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>37</v>
-      </c>
-      <c r="J20" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -1188,32 +843,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
         <v>41</v>
       </c>
-      <c r="F21" t="n">
-        <v>48</v>
-      </c>
-      <c r="G21" t="n">
-        <v>45</v>
-      </c>
-      <c r="H21" t="n">
-        <v>40</v>
-      </c>
-      <c r="I21" t="n">
-        <v>47</v>
-      </c>
-      <c r="J21" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1229,31 +869,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
-        <v>67</v>
-      </c>
-      <c r="F23" t="n">
-        <v>70</v>
-      </c>
-      <c r="G23" t="n">
-        <v>70</v>
-      </c>
-      <c r="H23" t="n">
-        <v>70</v>
-      </c>
-      <c r="I23" t="n">
-        <v>70</v>
-      </c>
-      <c r="J23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -1263,30 +888,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
-      </c>
-      <c r="F24" t="n">
-        <v>66</v>
-      </c>
-      <c r="G24" t="n">
-        <v>67</v>
-      </c>
-      <c r="H24" t="n">
-        <v>63</v>
-      </c>
-      <c r="I24" t="n">
-        <v>65</v>
-      </c>
-      <c r="J24" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1300,28 +910,13 @@
         <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
-        <v>59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>65</v>
-      </c>
-      <c r="G25" t="n">
-        <v>66</v>
-      </c>
-      <c r="H25" t="n">
-        <v>64</v>
-      </c>
-      <c r="I25" t="n">
-        <v>66</v>
-      </c>
-      <c r="J25" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -1331,31 +926,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>59</v>
-      </c>
-      <c r="F26" t="n">
-        <v>68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>64</v>
-      </c>
-      <c r="H26" t="n">
-        <v>60</v>
-      </c>
-      <c r="I26" t="n">
-        <v>68</v>
-      </c>
-      <c r="J26" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1365,31 +945,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>97</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>102</v>
-      </c>
-      <c r="H27" t="n">
-        <v>95</v>
-      </c>
-      <c r="I27" t="n">
-        <v>99</v>
-      </c>
-      <c r="J27" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1410,21 +975,6 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1433,32 +983,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n">
         <v>41</v>
       </c>
-      <c r="F29" t="n">
-        <v>48</v>
-      </c>
-      <c r="G29" t="n">
-        <v>45</v>
-      </c>
-      <c r="H29" t="n">
-        <v>40</v>
-      </c>
-      <c r="I29" t="n">
-        <v>47</v>
-      </c>
-      <c r="J29" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1467,31 +1002,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>-52</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
-      </c>
-      <c r="F30" t="n">
-        <v>38</v>
-      </c>
-      <c r="G30" t="n">
-        <v>28</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
-      </c>
-      <c r="I30" t="n">
-        <v>37</v>
-      </c>
-      <c r="J30" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1501,31 +1021,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1535,31 +1040,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="n">
-        <v>67</v>
-      </c>
-      <c r="F32" t="n">
-        <v>70</v>
-      </c>
-      <c r="G32" t="n">
-        <v>70</v>
-      </c>
-      <c r="H32" t="n">
-        <v>70</v>
-      </c>
-      <c r="I32" t="n">
-        <v>70</v>
-      </c>
-      <c r="J32" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1569,31 +1059,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="C33" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D33" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H33" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="34">
@@ -1603,31 +1078,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1576760968055556</v>
+        <v>0.1970930148611111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1809585345</v>
+        <v>0.1851597901388889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1775827878611111</v>
+        <v>0.1386001252777777</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1504141619444444</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.1747728912777778</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.14565694525</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.1526553691666667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.1433210114722222</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.1107548007777778</v>
+        <v>0.1281246388888889</v>
       </c>
     </row>
     <row r="35">
@@ -1637,31 +1097,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.644720832869733e-08</v>
+        <v>6.687194293836812e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>1.588693412873999e-08</v>
+        <v>6.182627123281673e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>1.517801605650522e-08</v>
+        <v>1.082373764390855e-08</v>
       </c>
       <c r="E35" t="n">
-        <v>1.42502427187021e-08</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.551055123160967e-08</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.517639256168208e-08</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.409247896741873e-08</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.321320679575748e-08</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.284024308775944e-08</v>
+        <v>9.14914587895522e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1671,31 +1116,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.458357991083758</v>
+        <v>17.45556834164429</v>
       </c>
       <c r="C36" t="n">
-        <v>4.033601777284088</v>
+        <v>9.407679307066651</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8162224206096161</v>
+        <v>3.481813469922864</v>
       </c>
       <c r="E36" t="n">
-        <v>0.555415299166877</v>
-      </c>
-      <c r="F36" t="n">
-        <v>15.93013100436681</v>
-      </c>
-      <c r="G36" t="n">
-        <v>13.87171092518492</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24.73772555602182</v>
-      </c>
-      <c r="I36" t="n">
-        <v>23.57057394583228</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.320438906453413</v>
+        <v>5.706842177430413</v>
       </c>
     </row>
     <row r="37">
@@ -1705,31 +1135,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.95269657158638</v>
+        <v>22.21582917785449</v>
       </c>
       <c r="C37" t="n">
-        <v>8.65037489586226</v>
+        <v>18.48262385127284</v>
       </c>
       <c r="D37" t="n">
-        <v>3.609233516133147</v>
+        <v>27.39717674319339</v>
       </c>
       <c r="E37" t="n">
-        <v>4.208893857972374</v>
-      </c>
-      <c r="F37" t="n">
-        <v>24.34934497816594</v>
-      </c>
-      <c r="G37" t="n">
-        <v>19.23527747463724</v>
-      </c>
-      <c r="H37" t="n">
-        <v>32.94167016365925</v>
-      </c>
-      <c r="I37" t="n">
-        <v>35.47006997570791</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6.18374558303887</v>
+        <v>18.1406828465652</v>
       </c>
     </row>
     <row r="38">
@@ -1739,31 +1154,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.369471732354913</v>
+        <v>1.664748753356348</v>
       </c>
       <c r="C38" t="n">
-        <v>7.730491530130519</v>
+        <v>10.39664096334636</v>
       </c>
       <c r="D38" t="n">
-        <v>3.75271011350593</v>
+        <v>4.381231135095582</v>
       </c>
       <c r="E38" t="n">
-        <v>5.106935478053883</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.814847161572053</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.802473626773373</v>
-      </c>
-      <c r="H38" t="n">
-        <v>6.61281298083648</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.337007360139226</v>
-      </c>
-      <c r="J38" t="n">
-        <v>6.578947368421052</v>
+        <v>3.595228301110654</v>
       </c>
     </row>
     <row r="39">
@@ -1773,31 +1173,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.675582909220026</v>
+        <v>3.122362869198312</v>
       </c>
       <c r="C39" t="n">
-        <v>15.31519022493752</v>
+        <v>21.85222351325658</v>
       </c>
       <c r="D39" t="n">
-        <v>12.43145007014411</v>
+        <v>8.863075093752858</v>
       </c>
       <c r="E39" t="n">
-        <v>10.89191041223356</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8.988646288209607</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10.02788892930763</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7.522031053294167</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.834414995830464</v>
-      </c>
-      <c r="J39" t="n">
-        <v>12.70225032546029</v>
+        <v>7.072535307829425</v>
       </c>
     </row>
     <row r="40">
@@ -1807,31 +1192,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.35858286976762</v>
+        <v>41.71205728167753</v>
       </c>
       <c r="C40" t="n">
-        <v>25.46167731185782</v>
+        <v>41.86648357452202</v>
       </c>
       <c r="D40" t="n">
-        <v>37.88101007524551</v>
+        <v>18.69569194182749</v>
       </c>
       <c r="E40" t="n">
-        <v>10.5781368341328</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17.78864628820961</v>
-      </c>
-      <c r="G40" t="n">
-        <v>11.00198051816822</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8.375297244369841</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10.67401472027845</v>
-      </c>
-      <c r="J40" t="n">
-        <v>51.9434628975265</v>
+        <v>33.24283559577677</v>
       </c>
     </row>
     <row r="41">
@@ -1841,31 +1211,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.2775870911745</v>
+        <v>30.44751310574095</v>
       </c>
       <c r="C41" t="n">
-        <v>11.98278256039989</v>
+        <v>7.069293334741735</v>
       </c>
       <c r="D41" t="n">
-        <v>13.16158653233006</v>
+        <v>15.14375438275557</v>
       </c>
       <c r="E41" t="n">
-        <v>7.844339452519206</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11.83930131004367</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9.166969807202619</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11.65547629039026</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.04020883941844</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9.852148037939372</v>
+        <v>23.75428493075552</v>
       </c>
     </row>
     <row r="42">
@@ -1875,31 +1230,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.65633013768888</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>12.43751735628992</v>
+        <v>0.05809654589627126</v>
       </c>
       <c r="D42" t="n">
-        <v>17.50095651064915</v>
+        <v>19.1042409829568</v>
       </c>
       <c r="E42" t="n">
-        <v>10.09845998485231</v>
-      </c>
-      <c r="F42" t="n">
-        <v>11.74497816593886</v>
-      </c>
-      <c r="G42" t="n">
-        <v>15.57333980033143</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.120016785564415</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13.41503208730648</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.374000371954621</v>
+        <v>13.47593582887701</v>
       </c>
     </row>
     <row r="43">
@@ -1909,31 +1249,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.78143370024066</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>9.615384615384617</v>
+        <v>0.0250871448188444</v>
       </c>
       <c r="D43" t="n">
-        <v>9.233516133146283</v>
+        <v>5.902618982286045</v>
       </c>
       <c r="E43" t="n">
-        <v>13.31193421574639</v>
-      </c>
-      <c r="F43" t="n">
-        <v>13.97729257641921</v>
-      </c>
-      <c r="G43" t="n">
-        <v>15.08831494280748</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12.76402294027137</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.39465574127117</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.389064534126836</v>
+        <v>0.4662004662004662</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,7 +606,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,7 +625,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -687,7 +687,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -706,7 +706,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -725,7 +725,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -744,7 +744,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(kWh)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -763,45 +763,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
       <c r="C17" t="n">
-        <v>3.107</v>
+        <v>3.34</v>
       </c>
       <c r="D17" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
       <c r="E17" t="n">
-        <v>3.082</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.339</v>
+        <v>2.985</v>
       </c>
       <c r="C18" t="n">
-        <v>3.34</v>
+        <v>3.107</v>
       </c>
       <c r="D18" t="n">
-        <v>3.334</v>
+        <v>3.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.33</v>
+        <v>3.082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -820,7 +820,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -839,7 +839,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -858,14 +858,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
-        </is>
+          <t>Difference in Temperature(C)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -884,7 +896,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -903,7 +915,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -922,7 +934,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -941,7 +953,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -960,7 +972,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -979,7 +991,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -998,7 +1010,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1017,7 +1029,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1036,229 +1048,248 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.5</v>
+        <v>1.970930148611111</v>
       </c>
       <c r="C33" t="n">
-        <v>5.5</v>
+        <v>1.851597901388889</v>
       </c>
       <c r="D33" t="n">
-        <v>5.5</v>
+        <v>1.386001252777778</v>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>1.281246388888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1970930148611111</v>
+        <v>6.687194293836812e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1851597901388889</v>
+        <v>6.182627123281674e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1386001252777777</v>
+        <v>1.082373764390855e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1281246388888889</v>
+        <v>9.149145878955218e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.687194293836812e-09</v>
+        <v>18.29305715381665</v>
       </c>
       <c r="C35" t="n">
-        <v>6.182627123281673e-09</v>
+        <v>9.657230379211999</v>
       </c>
       <c r="D35" t="n">
-        <v>1.082373764390855e-08</v>
+        <v>3.994024208055123</v>
       </c>
       <c r="E35" t="n">
-        <v>9.14914587895522e-09</v>
+        <v>5.959138900315371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.45556834164429</v>
+        <v>4.760260836210203</v>
       </c>
       <c r="C36" t="n">
-        <v>9.407679307066651</v>
+        <v>9.07494454420619</v>
       </c>
       <c r="D36" t="n">
-        <v>3.481813469922864</v>
+        <v>23.91536327327053</v>
       </c>
       <c r="E36" t="n">
-        <v>5.706842177430413</v>
+        <v>12.43384066913479</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.21582917785449</v>
+        <v>1.663470144482803</v>
       </c>
       <c r="C37" t="n">
-        <v>18.48262385127284</v>
+        <v>10.38475757895849</v>
       </c>
       <c r="D37" t="n">
-        <v>27.39717674319339</v>
+        <v>4.378182261654319</v>
       </c>
       <c r="E37" t="n">
-        <v>18.1406828465652</v>
+        <v>3.587001234060057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.664748753356348</v>
+        <v>3.11724843370413</v>
       </c>
       <c r="C38" t="n">
-        <v>10.39664096334636</v>
+        <v>21.83505862469631</v>
       </c>
       <c r="D38" t="n">
-        <v>4.381231135095582</v>
+        <v>8.856977346870332</v>
       </c>
       <c r="E38" t="n">
-        <v>3.595228301110654</v>
+        <v>7.061565885095297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.122362869198312</v>
+        <v>41.70950006393044</v>
       </c>
       <c r="C39" t="n">
-        <v>21.85222351325658</v>
+        <v>41.82291116509982</v>
       </c>
       <c r="D39" t="n">
-        <v>8.863075093752858</v>
+        <v>18.68044757462118</v>
       </c>
       <c r="E39" t="n">
-        <v>7.072535307829425</v>
+        <v>33.23460852872618</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.71205728167753</v>
+        <v>28.17286791970336</v>
       </c>
       <c r="C40" t="n">
-        <v>41.86648357452202</v>
+        <v>6.743160452096757</v>
       </c>
       <c r="D40" t="n">
-        <v>18.69569194182749</v>
+        <v>14.79313393701027</v>
       </c>
       <c r="E40" t="n">
-        <v>33.24283559577677</v>
+        <v>22.65734265734266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.44751310574095</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.069293334741735</v>
+        <v>0.05809654589627126</v>
       </c>
       <c r="D41" t="n">
-        <v>15.14375438275557</v>
+        <v>19.07984999542669</v>
       </c>
       <c r="E41" t="n">
-        <v>23.75428493075552</v>
+        <v>13.45399698340875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05809654589627126</v>
+        <v>0.0250871448188444</v>
       </c>
       <c r="D42" t="n">
-        <v>19.1042409829568</v>
+        <v>5.884325741638465</v>
       </c>
       <c r="E42" t="n">
-        <v>13.47593582887701</v>
+        <v>0.4607157548334019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0250871448188444</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.902618982286045</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4662004662004662</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,7 +606,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,7 +625,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -687,7 +687,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -706,7 +706,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -725,7 +725,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -744,64 +744,64 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.201109951715442</v>
+        <v>1.201109951715442</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.228834716066615</v>
+        <v>5.228834716066615</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.108522701697714</v>
+        <v>4.108522701697714</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.266675008452464</v>
+        <v>4.266675008452464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
       <c r="C17" t="n">
-        <v>3.107</v>
+        <v>3.34</v>
       </c>
       <c r="D17" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
       <c r="E17" t="n">
-        <v>3.082</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.339</v>
+        <v>2.985</v>
       </c>
       <c r="C18" t="n">
-        <v>3.34</v>
+        <v>3.107</v>
       </c>
       <c r="D18" t="n">
-        <v>3.334</v>
+        <v>3.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.33</v>
+        <v>3.082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -820,7 +820,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -839,7 +839,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -858,14 +858,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
-        </is>
+          <t>Difference in Temperature(C)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -884,7 +896,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -903,7 +915,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -922,7 +934,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -941,7 +953,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -960,7 +972,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -979,7 +991,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -998,7 +1010,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1017,7 +1029,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1036,229 +1048,248 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.5</v>
+        <v>1.970930148611111</v>
       </c>
       <c r="C33" t="n">
-        <v>5.5</v>
+        <v>1.851597901388889</v>
       </c>
       <c r="D33" t="n">
-        <v>5.5</v>
+        <v>1.386001252777778</v>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>1.281246388888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1970930148611111</v>
+        <v>6.687194293836812e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1851597901388889</v>
+        <v>6.182627123281674e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1386001252777777</v>
+        <v>1.082373764390855e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1281246388888889</v>
+        <v>9.149145878955218e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.687194293836812e-09</v>
+        <v>18.29305715381665</v>
       </c>
       <c r="C35" t="n">
-        <v>6.182627123281673e-09</v>
+        <v>9.657230379211999</v>
       </c>
       <c r="D35" t="n">
-        <v>1.082373764390855e-08</v>
+        <v>3.994024208055123</v>
       </c>
       <c r="E35" t="n">
-        <v>9.14914587895522e-09</v>
+        <v>5.959138900315371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.45556834164429</v>
+        <v>4.760260836210203</v>
       </c>
       <c r="C36" t="n">
-        <v>9.407679307066651</v>
+        <v>9.07494454420619</v>
       </c>
       <c r="D36" t="n">
-        <v>3.481813469922864</v>
+        <v>23.91536327327053</v>
       </c>
       <c r="E36" t="n">
-        <v>5.706842177430413</v>
+        <v>12.43384066913479</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.21582917785449</v>
+        <v>1.663470144482803</v>
       </c>
       <c r="C37" t="n">
-        <v>18.48262385127284</v>
+        <v>10.38475757895849</v>
       </c>
       <c r="D37" t="n">
-        <v>27.39717674319339</v>
+        <v>4.378182261654319</v>
       </c>
       <c r="E37" t="n">
-        <v>18.1406828465652</v>
+        <v>3.587001234060057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.664748753356348</v>
+        <v>3.11724843370413</v>
       </c>
       <c r="C38" t="n">
-        <v>10.39664096334636</v>
+        <v>21.83505862469631</v>
       </c>
       <c r="D38" t="n">
-        <v>4.381231135095582</v>
+        <v>8.856977346870332</v>
       </c>
       <c r="E38" t="n">
-        <v>3.595228301110654</v>
+        <v>7.061565885095297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.122362869198312</v>
+        <v>41.70950006393044</v>
       </c>
       <c r="C39" t="n">
-        <v>21.85222351325658</v>
+        <v>41.82291116509982</v>
       </c>
       <c r="D39" t="n">
-        <v>8.863075093752858</v>
+        <v>18.68044757462118</v>
       </c>
       <c r="E39" t="n">
-        <v>7.072535307829425</v>
+        <v>33.23460852872618</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.71205728167753</v>
+        <v>28.17286791970336</v>
       </c>
       <c r="C40" t="n">
-        <v>41.86648357452202</v>
+        <v>6.743160452096757</v>
       </c>
       <c r="D40" t="n">
-        <v>18.69569194182749</v>
+        <v>14.79313393701027</v>
       </c>
       <c r="E40" t="n">
-        <v>33.24283559577677</v>
+        <v>22.65734265734266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.44751310574095</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.069293334741735</v>
+        <v>0.05809654589627126</v>
       </c>
       <c r="D41" t="n">
-        <v>15.14375438275557</v>
+        <v>19.07984999542669</v>
       </c>
       <c r="E41" t="n">
-        <v>23.75428493075552</v>
+        <v>13.45399698340875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05809654589627126</v>
+        <v>0.0250871448188444</v>
       </c>
       <c r="D42" t="n">
-        <v>19.1042409829568</v>
+        <v>5.884325741638465</v>
       </c>
       <c r="E42" t="n">
-        <v>13.47593582887701</v>
+        <v>0.4607157548334019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0250871448188444</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.902618982286045</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4662004662004662</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/merged_analysis.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,206 +454,233 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total time taken for the ride</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.09476607638888888</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.09629348379629629</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.04116934027777778</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.04503153935185185</v>
+          <t>Date and Time</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:17:50.432000 to 2024-03-11 15:29:55.824000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:42:37.788000 to 2024-03-11 20:01:41.810000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:37:01.599000 to 2024-03-11 17:36:23.668000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:31:19.824000 to 2024-03-11 16:36:21.599000</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Actual Ampere-hours (Ah)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35.83509361111111</v>
-      </c>
-      <c r="C3" t="n">
-        <v>33.66541638888889</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.20002277777778</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23.29538888888889</v>
+          <t>Total time taken for the ride</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.09476607638888888</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.09629348379629629</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.04116934027777778</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.04503153935185185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Actual Watt-hours (Wh)</t>
+          <t>Actual Ampere-hours (Ah)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1842.9312340325</v>
+        <v>35.83509361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>1739.502156834166</v>
+        <v>33.66541638888889</v>
       </c>
       <c r="D4" t="n">
-        <v>1288.723236378611</v>
+        <v>25.20002277777778</v>
       </c>
       <c r="E4" t="n">
-        <v>1202.019643321667</v>
+        <v>23.29538888888889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Starting SoC (Ah)</t>
+          <t>Actual Watt-hours (Wh)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.646</v>
+        <v>1842.9312340325</v>
       </c>
       <c r="C5" t="n">
-        <v>39.6</v>
+        <v>1739.502156834166</v>
       </c>
       <c r="D5" t="n">
-        <v>38.279</v>
+        <v>1288.723236378611</v>
       </c>
       <c r="E5" t="n">
-        <v>38.411</v>
+        <v>1202.019643321667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ending SoC (Ah)</t>
+          <t>Starting SoC (Ah)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.126</v>
+        <v>38.646</v>
       </c>
       <c r="C6" t="n">
-        <v>5.579</v>
+        <v>39.6</v>
       </c>
       <c r="D6" t="n">
-        <v>12.818</v>
+        <v>38.279</v>
       </c>
       <c r="E6" t="n">
-        <v>14.015</v>
+        <v>38.411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Starting SoC (%)</t>
+          <t>Ending SoC (Ah)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>3.126</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>5.579</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>12.818</v>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>14.015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ending SoC (%)</t>
+          <t>Starting SoC (%)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total distance covered (km)</t>
+          <t>Ending SoC (%)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.78145244294669</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.66392335791602</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>31.11078368427709</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>36.62457311111898</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total energy consumption(WH/KM)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.41004406635532</v>
+        <v>69.78145244294669</v>
       </c>
       <c r="C10" t="n">
-        <v>28.6744091141474</v>
+        <v>60.66392335791602</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4236828444123</v>
+        <v>31.11078368427709</v>
       </c>
       <c r="E10" t="n">
-        <v>32.82003150384138</v>
+        <v>36.62457311111898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total SOC consumed(%)</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>26.41004406635532</v>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>28.6744091141474</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>41.4236828444123</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>32.82003150384138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Total SOC consumed(%)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>85</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Eco mode
 98.43%</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Eco mode
 50.43%
@@ -663,7 +690,7 @@
 3.00%</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Custom mode
 59.03%
@@ -673,7 +700,7 @@
 0.03%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Eco mode
 64.47%
@@ -684,295 +711,276 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Peak Power(kW)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2438.510646</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6033.005824</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6127.99704</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5854.507213</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Average Power(kW)</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-813.6561739657836</v>
+        <v>2438.510646</v>
       </c>
       <c r="C14" t="n">
-        <v>-755.6664371428743</v>
+        <v>6033.005824</v>
       </c>
       <c r="D14" t="n">
-        <v>-1311.306854427077</v>
+        <v>6127.99704</v>
       </c>
       <c r="E14" t="n">
-        <v>-1118.735965862978</v>
+        <v>5854.507213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated(kWh)</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.40473596861111</v>
+        <v>-813.6561739657836</v>
       </c>
       <c r="C15" t="n">
-        <v>95.97401529333334</v>
+        <v>-755.6664371428743</v>
       </c>
       <c r="D15" t="n">
-        <v>55.21605070694445</v>
+        <v>-1311.306854427077</v>
       </c>
       <c r="E15" t="n">
-        <v>53.57201551583334</v>
+        <v>-1118.735965862978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness(%)</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.201109951715442</v>
+        <v>22.40473596861111</v>
       </c>
       <c r="C16" t="n">
-        <v>5.228834716066615</v>
+        <v>95.97401529333334</v>
       </c>
       <c r="D16" t="n">
-        <v>4.108522701697714</v>
+        <v>55.21605070694445</v>
       </c>
       <c r="E16" t="n">
-        <v>4.266675008452464</v>
+        <v>53.57201551583334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage(V)</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.339</v>
+        <v>1.201109951715442</v>
       </c>
       <c r="C17" t="n">
-        <v>3.34</v>
+        <v>5.228834716066615</v>
       </c>
       <c r="D17" t="n">
-        <v>3.334</v>
+        <v>4.108522701697714</v>
       </c>
       <c r="E17" t="n">
-        <v>3.33</v>
+        <v>4.266675008452464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage(V)</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
       <c r="C18" t="n">
-        <v>3.107</v>
+        <v>3.34</v>
       </c>
       <c r="D18" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
       <c r="E18" t="n">
-        <v>3.082</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage(V)</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3540000000000001</v>
+        <v>2.985</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2329999999999997</v>
+        <v>3.107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2440000000000002</v>
+        <v>3.09</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2480000000000002</v>
+        <v>3.082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Minimum Temperature(C)</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>0.3540000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>0.2329999999999997</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>0.2440000000000002</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>0.2480000000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maximum Temperature(C)</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference in Temperature(C)</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature-BMS(C)</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature-BMS(C)</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>47</v>
       </c>
       <c r="D24" t="n">
+        <v>69</v>
+      </c>
+      <c r="E24" t="n">
         <v>65</v>
-      </c>
-      <c r="E24" t="n">
-        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature-BMS(C)</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature(C)</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature(C)</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected(C)</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -991,304 +999,342 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp(C)</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lowest cell temp(C)</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>-52</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>-52</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage(V)</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged(kWh)</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.970930148611111</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n">
-        <v>1.851597901388889</v>
+        <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>1.386001252777778</v>
+        <v>55</v>
       </c>
       <c r="E33" t="n">
-        <v>1.281246388888889</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units(kW)</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.687194293836812e-08</v>
+        <v>1.970930148611111</v>
       </c>
       <c r="C34" t="n">
-        <v>6.182627123281674e-08</v>
+        <v>1.851597901388889</v>
       </c>
       <c r="D34" t="n">
-        <v>1.082373764390855e-07</v>
+        <v>1.386001252777778</v>
       </c>
       <c r="E34" t="n">
-        <v>9.149145878955218e-08</v>
+        <v>1.281246388888889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.29305715381665</v>
+        <v>6.687194293836812e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>9.657230379211999</v>
+        <v>6.182627123281674e-08</v>
       </c>
       <c r="D35" t="n">
-        <v>3.994024208055123</v>
+        <v>1.082373764390855e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>5.959138900315371</v>
+        <v>9.149145878955218e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Cycle Count of battery</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.760260836210203</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>9.07494454420619</v>
+        <v>136</v>
       </c>
       <c r="D36" t="n">
-        <v>23.91536327327053</v>
+        <v>42</v>
       </c>
       <c r="E36" t="n">
-        <v>12.43384066913479</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.663470144482803</v>
+        <v>18.29305715381665</v>
       </c>
       <c r="C37" t="n">
-        <v>10.38475757895849</v>
+        <v>9.657230379211999</v>
       </c>
       <c r="D37" t="n">
-        <v>4.378182261654319</v>
+        <v>3.994024208055123</v>
       </c>
       <c r="E37" t="n">
-        <v>3.587001234060057</v>
+        <v>5.959138900315371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.11724843370413</v>
+        <v>4.760260836210203</v>
       </c>
       <c r="C38" t="n">
-        <v>21.83505862469631</v>
+        <v>9.07494454420619</v>
       </c>
       <c r="D38" t="n">
-        <v>8.856977346870332</v>
+        <v>23.91536327327053</v>
       </c>
       <c r="E38" t="n">
-        <v>7.061565885095297</v>
+        <v>12.43384066913479</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41.70950006393044</v>
+        <v>1.663470144482803</v>
       </c>
       <c r="C39" t="n">
-        <v>41.82291116509982</v>
+        <v>10.38475757895849</v>
       </c>
       <c r="D39" t="n">
-        <v>18.68044757462118</v>
+        <v>4.378182261654319</v>
       </c>
       <c r="E39" t="n">
-        <v>33.23460852872618</v>
+        <v>3.587001234060057</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.17286791970336</v>
+        <v>3.11724843370413</v>
       </c>
       <c r="C40" t="n">
-        <v>6.743160452096757</v>
+        <v>21.83505862469631</v>
       </c>
       <c r="D40" t="n">
-        <v>14.79313393701027</v>
+        <v>8.856977346870332</v>
       </c>
       <c r="E40" t="n">
-        <v>22.65734265734266</v>
+        <v>7.061565885095297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.70950006393044</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05809654589627126</v>
+        <v>41.82291116509982</v>
       </c>
       <c r="D41" t="n">
-        <v>19.07984999542669</v>
+        <v>18.68044757462118</v>
       </c>
       <c r="E41" t="n">
-        <v>13.45399698340875</v>
+        <v>33.23460852872618</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>28.17286791970336</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250871448188444</v>
+        <v>6.743160452096757</v>
       </c>
       <c r="D42" t="n">
-        <v>5.884325741638465</v>
+        <v>14.79313393701027</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4607157548334019</v>
+        <v>22.65734265734266</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Time spent in 70-80 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.05809654589627126</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>19.07984999542669</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>13.45399698340875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Time spent in 60-70 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0250871448188444</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.884325741638465</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4607157548334019</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Time spent in 70-80 km/h</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Time spent in 80-90 km/h</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>0</v>
       </c>
     </row>
